--- a/响应式项目规划.xlsx
+++ b/响应式项目规划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>响应式项目计划</t>
   </si>
@@ -58,6 +58,12 @@
     <t>胡丽鸽</t>
   </si>
   <si>
+    <t>完成商品详情页面</t>
+  </si>
+  <si>
+    <t>点击首页商品进去商品详情页面，点击加入购物车</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -76,22 +82,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -107,9 +108,102 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,66 +216,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,70 +250,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,187 +278,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +488,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,49 +542,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -593,164 +562,177 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -762,49 +744,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="2" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="2" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="1" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="1" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,7 +1142,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -1761,8 +1743,12 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +1794,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="10"/>
@@ -1994,7 +1980,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2007,10 +1993,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2029,7 +2015,7 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
